--- a/Project-Tracking/Timesheets/161599 - HRMS - TimeSheet.xlsx
+++ b/Project-Tracking/Timesheets/161599 - HRMS - TimeSheet.xlsx
@@ -861,6 +861,14 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -910,19 +918,179 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1613,7 +1781,7 @@
   <dimension ref="A1:AI33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:AI33"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,36 +1797,36 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
@@ -1712,11 +1880,11 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="47" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14"/>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="49" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="15" t="str">
@@ -1843,16 +2011,16 @@
         <f>IF(ISERROR((VLOOKUP($AI$2+(AH4-1),'[1]Timesheet Data'!$F$2:$F$41,1,FALSE))),LEFT(TEXT($AI$2+(AH4-1),"ddd"),1),"S")</f>
         <v>S</v>
       </c>
-      <c r="AI3" s="47" t="s">
+      <c r="AI3" s="51" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="18">
         <v>1</v>
       </c>
@@ -1946,14 +2114,14 @@
       <c r="AH4" s="19">
         <v>31</v>
       </c>
-      <c r="AI4" s="48"/>
+      <c r="AI4" s="52"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="20">
         <f>IF(D3="S",0,IF(D7&lt;8, D7, 8))</f>
         <v>0</v>
@@ -2008,11 +2176,11 @@
       </c>
       <c r="Q5" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R5" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S5" s="21">
         <f t="shared" si="0"/>
@@ -2080,15 +2248,15 @@
       </c>
       <c r="AI5" s="22">
         <f t="shared" ref="AI5:AI12" si="1">SUM(D5:AH5)</f>
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="23">
         <f>IF(D3="S",D7, IF(D7&gt;8, D7-8, 0))</f>
         <v>0</v>
@@ -2123,7 +2291,7 @@
       </c>
       <c r="L6" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="24">
         <f t="shared" si="2"/>
@@ -2143,7 +2311,7 @@
       </c>
       <c r="Q6" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R6" s="23">
         <f t="shared" si="2"/>
@@ -2215,142 +2383,142 @@
       </c>
       <c r="AI6" s="25">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="26">
-        <f>SUM(D9:D450)</f>
+        <f t="shared" ref="D7:AH7" si="3">SUM(D9:D450)</f>
         <v>0</v>
       </c>
       <c r="E7" s="27">
-        <f>SUM(E9:E450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F7" s="27">
-        <f>SUM(F9:F450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G7" s="27">
-        <f>SUM(G9:G450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H7" s="27">
-        <f>SUM(H9:H450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7" s="27">
-        <f>SUM(I9:I450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J7" s="26">
-        <f>SUM(J9:J450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="26">
-        <f>SUM(K9:K450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L7" s="27">
-        <f>SUM(L9:L450)</f>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="M7" s="27">
-        <f>SUM(M9:M450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N7" s="27">
-        <f>SUM(N9:N450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O7" s="27">
-        <f>SUM(O9:O450)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="P7" s="27">
-        <f>SUM(P9:P450)</f>
+        <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
       <c r="Q7" s="26">
-        <f>SUM(Q9:Q450)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="R7" s="26">
-        <f>SUM(R9:R450)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="S7" s="27">
-        <f>SUM(S9:S450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T7" s="27">
-        <f>SUM(T9:T450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U7" s="27">
-        <f>SUM(U9:U450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V7" s="27">
-        <f>SUM(V9:V450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W7" s="27">
-        <f>SUM(W9:W450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X7" s="26">
-        <f>SUM(X9:X450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y7" s="26">
-        <f>SUM(Y9:Y450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z7" s="27">
-        <f>SUM(Z9:Z450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA7" s="27">
-        <f>SUM(AA9:AA450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB7" s="27">
-        <f>SUM(AB9:AB450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC7" s="27">
-        <f>SUM(AC9:AC450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD7" s="27">
-        <f>SUM(AD9:AD450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE7" s="26">
-        <f>SUM(AE9:AE450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF7" s="26">
-        <f>SUM(AF9:AF450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG7" s="27">
-        <f>SUM(AG9:AG450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH7" s="27">
-        <f>SUM(AH9:AH450)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI7" s="28">
         <f t="shared" si="1"/>
-        <v>26.5</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2442,7 +2610,7 @@
       </c>
     </row>
     <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="39" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="35" t="s">
@@ -2490,7 +2658,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="39" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="35" t="s">
@@ -2538,7 +2706,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="35" t="s">
@@ -2586,7 +2754,7 @@
       </c>
     </row>
     <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="35" t="s">
@@ -2629,12 +2797,12 @@
       <c r="AG13" s="36"/>
       <c r="AH13" s="36"/>
       <c r="AI13" s="38">
-        <f t="shared" ref="AI13:AI33" si="3">SUM(D13:AH13)</f>
+        <f t="shared" ref="AI13:AI33" si="4">SUM(D13:AH13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="35" t="s">
@@ -2651,11 +2819,13 @@
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
+      <c r="L14" s="36">
+        <v>1</v>
+      </c>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" s="36"/>
       <c r="Q14" s="36"/>
@@ -2677,12 +2847,12 @@
       <c r="AG14" s="36"/>
       <c r="AH14" s="36"/>
       <c r="AI14" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="39" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="35" t="s">
@@ -2725,12 +2895,12 @@
       <c r="AG15" s="36"/>
       <c r="AH15" s="36"/>
       <c r="AI15" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="35" t="s">
@@ -2777,7 +2947,7 @@
       </c>
     </row>
     <row r="17" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="39" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="35" t="s">
@@ -2825,7 +2995,7 @@
       </c>
     </row>
     <row r="18" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="35" t="s">
@@ -2868,12 +3038,12 @@
       <c r="AG18" s="36"/>
       <c r="AH18" s="36"/>
       <c r="AI18" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="39" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="35" t="s">
@@ -2894,7 +3064,7 @@
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="P19" s="36"/>
       <c r="Q19" s="36"/>
@@ -2916,12 +3086,12 @@
       <c r="AG19" s="36"/>
       <c r="AH19" s="36"/>
       <c r="AI19" s="38">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="35" t="s">
@@ -2969,7 +3139,7 @@
       </c>
     </row>
     <row r="21" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="35" t="s">
@@ -3017,7 +3187,7 @@
       </c>
     </row>
     <row r="22" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="39" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="35" t="s">
@@ -3065,7 +3235,7 @@
       </c>
     </row>
     <row r="23" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="41" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="35" t="s">
@@ -3108,12 +3278,12 @@
       <c r="AG23" s="36"/>
       <c r="AH23" s="36"/>
       <c r="AI23" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="42" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="35" t="s">
@@ -3135,7 +3305,9 @@
       <c r="N24" s="36"/>
       <c r="O24" s="36"/>
       <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
+      <c r="Q24" s="36">
+        <v>1</v>
+      </c>
       <c r="R24" s="36"/>
       <c r="S24" s="36"/>
       <c r="T24" s="36"/>
@@ -3154,12 +3326,12 @@
       <c r="AG24" s="36"/>
       <c r="AH24" s="36"/>
       <c r="AI24" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="35" t="s">
@@ -3181,7 +3353,9 @@
       <c r="N25" s="36"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
+      <c r="Q25" s="36">
+        <v>1</v>
+      </c>
       <c r="R25" s="36"/>
       <c r="S25" s="36"/>
       <c r="T25" s="36"/>
@@ -3200,12 +3374,12 @@
       <c r="AG25" s="36"/>
       <c r="AH25" s="36"/>
       <c r="AI25" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="42" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="35" t="s">
@@ -3227,7 +3401,9 @@
       <c r="N26" s="36"/>
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
+      <c r="Q26" s="36">
+        <v>1</v>
+      </c>
       <c r="R26" s="36"/>
       <c r="S26" s="36"/>
       <c r="T26" s="36"/>
@@ -3246,12 +3422,12 @@
       <c r="AG26" s="36"/>
       <c r="AH26" s="36"/>
       <c r="AI26" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="42" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="35" t="s">
@@ -3273,7 +3449,9 @@
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
+      <c r="Q27" s="36">
+        <v>2</v>
+      </c>
       <c r="R27" s="36"/>
       <c r="S27" s="36"/>
       <c r="T27" s="36"/>
@@ -3292,12 +3470,12 @@
       <c r="AG27" s="36"/>
       <c r="AH27" s="36"/>
       <c r="AI27" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="41" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="35" t="s">
@@ -3319,7 +3497,9 @@
       <c r="N28" s="36"/>
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
+      <c r="Q28" s="36">
+        <v>2</v>
+      </c>
       <c r="R28" s="36"/>
       <c r="S28" s="36"/>
       <c r="T28" s="36"/>
@@ -3338,12 +3518,12 @@
       <c r="AG28" s="36"/>
       <c r="AH28" s="36"/>
       <c r="AI28" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="42" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="35" t="s">
@@ -3365,7 +3545,9 @@
       <c r="N29" s="36"/>
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
+      <c r="Q29" s="36">
+        <v>1</v>
+      </c>
       <c r="R29" s="36"/>
       <c r="S29" s="36"/>
       <c r="T29" s="36"/>
@@ -3384,12 +3566,12 @@
       <c r="AG29" s="36"/>
       <c r="AH29" s="36"/>
       <c r="AI29" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="42" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="35" t="s">
@@ -3411,7 +3593,9 @@
       <c r="N30" s="36"/>
       <c r="O30" s="36"/>
       <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
+      <c r="Q30" s="36">
+        <v>1</v>
+      </c>
       <c r="R30" s="36"/>
       <c r="S30" s="36"/>
       <c r="T30" s="36"/>
@@ -3430,12 +3614,12 @@
       <c r="AG30" s="36"/>
       <c r="AH30" s="36"/>
       <c r="AI30" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="42" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="35" t="s">
@@ -3457,7 +3641,9 @@
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
+      <c r="Q31" s="36">
+        <v>1</v>
+      </c>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="36"/>
@@ -3476,12 +3662,12 @@
       <c r="AG31" s="36"/>
       <c r="AH31" s="36"/>
       <c r="AI31" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="42" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="35" t="s">
@@ -3504,7 +3690,9 @@
       <c r="O32" s="36"/>
       <c r="P32" s="36"/>
       <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
+      <c r="R32" s="36">
+        <v>3</v>
+      </c>
       <c r="S32" s="36"/>
       <c r="T32" s="36"/>
       <c r="U32" s="36"/>
@@ -3522,12 +3710,12 @@
       <c r="AG32" s="36"/>
       <c r="AH32" s="36"/>
       <c r="AI32" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="42" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="35" t="s">
@@ -3550,7 +3738,9 @@
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
       <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
+      <c r="R33" s="36">
+        <v>1</v>
+      </c>
       <c r="S33" s="36"/>
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
@@ -3568,8 +3758,8 @@
       <c r="AG33" s="36"/>
       <c r="AH33" s="36"/>
       <c r="AI33" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3582,27 +3772,59 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
   </mergeCells>
-  <conditionalFormatting sqref="O9:P19 D29:U33 O24:P28 D9:N28 Q9:U28 V9:AH33 O20:O23">
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="D9:K33 S9:AH33">
+    <cfRule type="expression" dxfId="35" priority="27" stopIfTrue="1">
       <formula>D$3="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="28" stopIfTrue="1">
       <formula>D$3&lt;&gt;"S"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L29:R33 L24:P28 Q9:R28">
+    <cfRule type="expression" dxfId="23" priority="11" stopIfTrue="1">
+      <formula>L$3="S"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="12" stopIfTrue="1">
+      <formula>L$3&lt;&gt;"S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20:O23 L15:N23 M14:N14 L9:P13 O15:P19 P14">
+    <cfRule type="expression" dxfId="19" priority="7" stopIfTrue="1">
+      <formula>L$3="S"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="8" stopIfTrue="1">
+      <formula>L$3&lt;&gt;"S"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P20:P22">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>P$3="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>P$3&lt;&gt;"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
       <formula>O$3="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+      <formula>O$3&lt;&gt;"S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+      <formula>O$3="S"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+      <formula>O$3&lt;&gt;"S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>O$3="S"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>O$3&lt;&gt;"S"</formula>
     </cfRule>
   </conditionalFormatting>
